--- a/5. Capstone Project/data/child_labor/Persentase anak usia 10-17 tahun yang bekerja menurut jenis kelamin.xlsx
+++ b/5. Capstone Project/data/child_labor/Persentase anak usia 10-17 tahun yang bekerja menurut jenis kelamin.xlsx
@@ -1,19 +1,105 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Computer Science\Artificial Intelligence\TETRIS\TETRIS-Data-Analytics\5. Capstone Project\data\child_labor\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6331D00-A0B3-48DC-B575-D358D6F43B5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="5692" yWindow="2337" windowWidth="19562" windowHeight="10161" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+  <si>
+    <t>Jenis Kelamin + Jumlah</t>
+  </si>
+  <si>
+    <t>Persentase anak usia 10-17 tahun yang bekerja menurut jenis kelamin (Persen)</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>Laki-laki</t>
+  </si>
+  <si>
+    <t>2.73</t>
+  </si>
+  <si>
+    <t>3.34</t>
+  </si>
+  <si>
+    <t>2.67</t>
+  </si>
+  <si>
+    <t>Perempuan</t>
+  </si>
+  <si>
+    <t>1.96</t>
+  </si>
+  <si>
+    <t>3.16</t>
+  </si>
+  <si>
+    <t>2.60</t>
+  </si>
+  <si>
+    <t>Laki-laki + Perempuan</t>
+  </si>
+  <si>
+    <t>2.35</t>
+  </si>
+  <si>
+    <t>3.25</t>
+  </si>
+  <si>
+    <t>2.63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sumber Data: Sakernas
+</t>
+  </si>
+  <si>
+    <t>Source Url: https://www.bps.go.id/indicator/6/2009/1/persentase-anak-usia-10-17-tahun-yang-bekerja-menurut-jenis-kelamin.html</t>
+  </si>
+  <si>
+    <t>Access Time: July 30, 2022, 1:41 pm</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>2.97</t>
+  </si>
+  <si>
+    <t>2.24</t>
+  </si>
+  <si>
+    <t>2.61</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -42,14 +128,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -374,101 +470,133 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>Jenis Kelamin + Jumlah</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Persentase anak usia 10-17 tahun yang bekerja menurut jenis kelamin (Persen)</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="B2" t="str">
-        <v>2019</v>
-      </c>
-      <c r="C2" t="str">
-        <v>2020</v>
-      </c>
-      <c r="D2" t="str">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>Laki-laki</v>
-      </c>
-      <c r="B3" t="str">
-        <v>2.73</v>
-      </c>
-      <c r="C3" t="str">
-        <v>3.34</v>
-      </c>
-      <c r="D3" t="str">
-        <v>2.67</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>Perempuan</v>
-      </c>
-      <c r="B4" t="str">
-        <v>1.96</v>
-      </c>
-      <c r="C4" t="str">
-        <v>3.16</v>
-      </c>
-      <c r="D4" t="str">
-        <v>2.60</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>Laki-laki + Perempuan</v>
-      </c>
-      <c r="B5" t="str">
-        <v>2.35</v>
-      </c>
-      <c r="C5" t="str">
-        <v>3.25</v>
-      </c>
-      <c r="D5" t="str">
-        <v>2.63</v>
-      </c>
-    </row>
-    <row r="6"/>
-    <row r="7" xml:space="preserve">
-      <c r="A7" t="str" xml:space="preserve">
-        <v xml:space="preserve">Sumber Data: Sakernas
-</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>Source Url: https://www.bps.go.id/indicator/6/2009/1/persentase-anak-usia-10-17-tahun-yang-bekerja-menurut-jenis-kelamin.html</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>Access Time: July 30, 2022, 1:41 pm</v>
-      </c>
+    <row r="1" spans="1:5" ht="16.3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" ht="16.3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="16.3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="16.3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="16.3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="16.3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" ht="16.3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" ht="16.3" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" ht="16.3" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A9:D9"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="A6:D6"/>
     <mergeCell ref="A7:D7"/>
     <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
   </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D9"/>
+    <ignoredError sqref="A1:D1 A6:D9 A2:A5" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>